--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-11.94538740614331</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.95698266184307</v>
+        <v>-16.97165946045755</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.683189772411064</v>
+        <v>-2.727885073188401</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.682070007962975</v>
+        <v>-4.56895794509003</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.39970911302585</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.16481434375563</v>
+        <v>-17.1788262374362</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.656935805535731</v>
+        <v>-2.698731925240987</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.054827447524038</v>
+        <v>-4.947919534365209</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.85160897964161</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.59326734954459</v>
+        <v>-17.60334848170416</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.466577434165531</v>
+        <v>-2.516381747118793</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.465000456637601</v>
+        <v>-5.353858663532024</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.37130779780972</v>
       </c>
       <c r="E5" t="n">
-        <v>-17.6671060202556</v>
+        <v>-17.67549555603923</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.151524942654664</v>
+        <v>-2.193927299211418</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.828194998766979</v>
+        <v>-5.719424373991855</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.940448271290968</v>
       </c>
       <c r="E6" t="n">
-        <v>-18.01011385303149</v>
+        <v>-18.0076742386049</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.029280214954323</v>
+        <v>-2.069110953899079</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.881851849131371</v>
+        <v>-5.770054929105626</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.556232970474257</v>
       </c>
       <c r="E7" t="n">
-        <v>-18.37244792995229</v>
+        <v>-18.36402906012746</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.938100236886359</v>
+        <v>-1.975266467088647</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.805549118959429</v>
+        <v>-5.696182035346542</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.200253098079848</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.79647638452669</v>
+        <v>-18.78305117167014</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.919404674627276</v>
+        <v>-1.948680047746363</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.138265592280459</v>
+        <v>-6.039048086923287</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.864750988093952</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.34591275424432</v>
+        <v>-19.32727586006764</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.406298514937686</v>
+        <v>-1.435745003297114</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.000943167402552</v>
+        <v>-5.911420562662472</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.53143618947111</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.05393383970408</v>
+        <v>-20.03143463010254</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.411534641292152</v>
+        <v>-1.437412154638732</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.945184044085387</v>
+        <v>-5.862540272007056</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.191836422510825</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.52296071348157</v>
+        <v>-20.49995793617273</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.359632944392983</v>
+        <v>-1.386972270792771</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.009723823735531</v>
+        <v>-5.929250770706111</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.836787101955673</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.20888348790287</v>
+        <v>-21.18367087949019</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8967711082746768</v>
+        <v>-0.9234406407336978</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.75076290800878</v>
+        <v>-5.683700400815308</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.458826620813867</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.80979621092225</v>
+        <v>-21.78328801568984</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4905435277027137</v>
+        <v>-0.5204446937007655</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.794622188611874</v>
+        <v>-5.726141869426996</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.065596534383886</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.52918912635445</v>
+        <v>-22.48801391052129</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2916587283566137</v>
+        <v>-0.3225768077829838</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.244369354747463</v>
+        <v>-5.184855474156508</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.66627036788183</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.0736142640335</v>
+        <v>-23.0250566478313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124596205299392</v>
+        <v>0.09610796228587856</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.905111390238502</v>
+        <v>-4.839129353562617</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.276639070098608</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.11907949245459</v>
+        <v>-24.05450060074951</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5147780653341402</v>
+        <v>0.4860013709154787</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.506065760754036</v>
+        <v>-4.43663208523011</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.920167974868896</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.09373234541529</v>
+        <v>-25.04905660066542</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6849155043027804</v>
+        <v>0.6573952846489161</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.212319561169186</v>
+        <v>-4.143893021059844</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.615837733951393</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.70034565044149</v>
+        <v>-25.65054622649509</v>
       </c>
       <c r="F18" t="n">
-        <v>1.202015982602641</v>
+        <v>1.169049409299033</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.849902371131647</v>
+        <v>-3.776117479496167</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.3795735736322</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.4986324696851</v>
+        <v>-26.45610299894981</v>
       </c>
       <c r="F19" t="n">
-        <v>1.401971474452595</v>
+        <v>1.366677733880336</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.578943832553487</v>
+        <v>-3.520950433098142</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.217881360748104</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.26484740388174</v>
+        <v>-27.20654844149722</v>
       </c>
       <c r="F20" t="n">
-        <v>1.618530033622593</v>
+        <v>1.588663090672609</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.352191694065972</v>
+        <v>-3.291695123094766</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.120911306310132</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.89180386648118</v>
+        <v>-27.83825457426786</v>
       </c>
       <c r="F21" t="n">
-        <v>1.898865687371496</v>
+        <v>1.863743062039579</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.331965872657545</v>
+        <v>-3.278040126915473</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.071616111665655</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.25425039055992</v>
+        <v>-28.20289381792641</v>
       </c>
       <c r="F22" t="n">
-        <v>1.843898583166771</v>
+        <v>1.814559652958414</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.226544217586258</v>
+        <v>-3.176163001822699</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.043258920956998</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.03985268148732</v>
+        <v>-28.98804632022205</v>
       </c>
       <c r="F23" t="n">
-        <v>1.91220289810444</v>
+        <v>1.884746235539845</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.739242236140244</v>
+        <v>-2.687804994893432</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.005510616534767</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.17015693700777</v>
+        <v>-29.1216090988193</v>
       </c>
       <c r="F24" t="n">
-        <v>2.022914458605729</v>
+        <v>1.99242172277678</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.499069773803047</v>
+        <v>-2.459840382702922</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.936467333156889</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.55405642321853</v>
+        <v>-29.4969479340061</v>
       </c>
       <c r="F25" t="n">
-        <v>1.898249672506265</v>
+        <v>1.87196637158973</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.508838009523144</v>
+        <v>-2.46578541505309</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.818190887482286</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.4857985538461</v>
+        <v>-29.42388905989035</v>
       </c>
       <c r="F26" t="n">
-        <v>1.74529709267483</v>
+        <v>1.725115272328205</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.476903016668455</v>
+        <v>-2.437311839060178</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.64391297343743</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.61298117848202</v>
+        <v>-29.55611225060607</v>
       </c>
       <c r="F27" t="n">
-        <v>1.618642480780532</v>
+        <v>1.594353894665698</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.036838619570573</v>
+        <v>-2.005045407915026</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.420422766601352</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.35956439654235</v>
+        <v>-29.29665021167546</v>
       </c>
       <c r="F28" t="n">
-        <v>1.615723743680983</v>
+        <v>1.5884724194048</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.107474990783761</v>
+        <v>-2.076967587934211</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.161692596889672</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.57038326165059</v>
+        <v>-29.50549391800946</v>
       </c>
       <c r="F29" t="n">
-        <v>1.302724635054222</v>
+        <v>1.276539114275025</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.774333173865309</v>
+        <v>-1.744207113551379</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.890361333917978</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.6636704016782</v>
+        <v>-29.59805015151046</v>
       </c>
       <c r="F30" t="n">
-        <v>1.30066636316325</v>
+        <v>1.283105050497292</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.58097784128569</v>
+        <v>-1.556655032122788</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.630705748640309</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.3958726060395</v>
+        <v>-29.33033302448507</v>
       </c>
       <c r="F31" t="n">
-        <v>1.183682206851709</v>
+        <v>1.164443964830399</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.245679972338929</v>
+        <v>-1.217807744190647</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.403690576571942</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.27278941366148</v>
+        <v>-29.21015879119287</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8802019945948311</v>
+        <v>0.8664932193400016</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.328372634485928</v>
+        <v>-1.296100300157423</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.227863577095102</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.76090795019205</v>
+        <v>-28.69608460814363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8919209440548261</v>
+        <v>0.8757725543734061</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.9859221484928709</v>
+        <v>-0.9541533818716575</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.112859553989372</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.24107696155702</v>
+        <v>-28.17556915854723</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6947326300915455</v>
+        <v>0.668551998319216</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.8766235109761202</v>
+        <v>-0.8370518893953107</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.062957139818347</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.90741446540724</v>
+        <v>-27.83883392158159</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6775037698925372</v>
+        <v>0.649299089277305</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.8815369628773698</v>
+        <v>-0.8411684331772531</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.077033658100744</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.90215144951501</v>
+        <v>-27.83926904319275</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8442531271024054</v>
+        <v>0.8149288639146496</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8089645449448843</v>
+        <v>-0.7740521469082446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.145466133223927</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.497045896019</v>
+        <v>-27.43190965753109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7598786465931873</v>
+        <v>0.7435835867057597</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.9266380512246601</v>
+        <v>-0.8901025029082048</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.255022275656803</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.17784508218156</v>
+        <v>-27.11496756486617</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8204974427360657</v>
+        <v>0.7897113664951022</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.9184929657843799</v>
+        <v>-0.8632227431539063</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.390154511275642</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.75548133444534</v>
+        <v>-26.68879039177375</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8921507273775712</v>
+        <v>0.8725262538137746</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.8394181687188975</v>
+        <v>-0.7786527023700116</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.535114946228217</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.39908740086784</v>
+        <v>-26.33143821285034</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8050824040846829</v>
+        <v>0.7750296788737566</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.9160973524195916</v>
+        <v>-0.8492597395419973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.677763174122917</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.01854666237465</v>
+        <v>-25.94344662789197</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8662292129691881</v>
+        <v>0.8405179258560824</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.018052701622236</v>
+        <v>-0.9483550197274964</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.807331863019946</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.60137259542767</v>
+        <v>-25.53555189597839</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8521977632611422</v>
+        <v>0.823753521309431</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.093519411619935</v>
+        <v>-1.007776009187981</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.918872053296883</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.06787927710304</v>
+        <v>-24.9989051682246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7506775356696533</v>
+        <v>0.7159215858527549</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.000789618375159</v>
+        <v>-0.9170800427998415</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.012843572818504</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.48446919866721</v>
+        <v>-24.41149099316477</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8766672426300515</v>
+        <v>0.8465411823161216</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.495967789883773</v>
+        <v>-1.40579983623726</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.090685063739922</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.99122218487103</v>
+        <v>-23.91467989336261</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8954605850264726</v>
+        <v>0.8627580180936785</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.545180533006139</v>
+        <v>-1.449311997352803</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.158829971506699</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.67996356268889</v>
+        <v>-23.6099334283272</v>
       </c>
       <c r="F46" t="n">
-        <v>0.92337192522969</v>
+        <v>0.8968050619148742</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.81524927233452</v>
+        <v>-1.720583432370446</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.223139773933076</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.17582384159322</v>
+        <v>-23.10544169873711</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8883128569870429</v>
+        <v>0.863823821590666</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.841737911539466</v>
+        <v>-1.745585813487849</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.289259466837795</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.06038461145162</v>
+        <v>-22.98674150101528</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7937985762358432</v>
+        <v>0.769954889745899</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.874655594774404</v>
+        <v>-1.773335816464459</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.363811065855794</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.43593132036805</v>
+        <v>-22.36928437875826</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7751127919904942</v>
+        <v>0.7571994708301178</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.261346703906175</v>
+        <v>-2.157328193805693</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.450042598583654</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.12236508694472</v>
+        <v>-22.05033534877446</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7633596194824307</v>
+        <v>0.7459303100018789</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.478892842463289</v>
+        <v>-2.385092356714659</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.55229879280261</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.64386331785916</v>
+        <v>-21.58026711653433</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9377309383978192</v>
+        <v>0.9189082619601967</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.389844471389301</v>
+        <v>-2.292582568778895</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.674411791788074</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.1893127934146</v>
+        <v>-21.13065448902536</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8804268889107091</v>
+        <v>0.8605384089760991</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.236593662138985</v>
+        <v>-2.143096294816103</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.815225517704325</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.82662181899252</v>
+        <v>-20.77771708330277</v>
       </c>
       <c r="F53" t="n">
-        <v>1.084987825229297</v>
+        <v>1.069391893323839</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.311087459770167</v>
+        <v>-2.209933907693697</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.976696111355301</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.42518057614327</v>
+        <v>-20.37434957174795</v>
       </c>
       <c r="F54" t="n">
-        <v>1.051600797335135</v>
+        <v>1.040512529760972</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.298640048287002</v>
+        <v>-2.199398097895496</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.158674607925557</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.02701007888798</v>
+        <v>-19.971060284303</v>
       </c>
       <c r="F55" t="n">
-        <v>1.156284212369518</v>
+        <v>1.141573190706971</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.741618293477565</v>
+        <v>-2.651773014284269</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.358199604948688</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.57281156293785</v>
+        <v>-19.52294369289531</v>
       </c>
       <c r="F56" t="n">
-        <v>1.098662377436059</v>
+        <v>1.090331509734835</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.615428137235623</v>
+        <v>-2.528032250482652</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.575922451872227</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.29863116883439</v>
+        <v>-19.24499387449747</v>
       </c>
       <c r="F57" t="n">
-        <v>1.006480152960377</v>
+        <v>0.9967412512814826</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.866102186322953</v>
+        <v>-2.772912826432687</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.809698015582198</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.90395631148895</v>
+        <v>-18.85057813451597</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8333946428509873</v>
+        <v>0.8175689276227837</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.019128101257391</v>
+        <v>-2.929957505011729</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.057470395552558</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.66003886989169</v>
+        <v>-18.6115105877307</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7569305754524375</v>
+        <v>0.7426644534147797</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.90778585887027</v>
+        <v>-2.815794305662398</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.316621118101243</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.26787696207585</v>
+        <v>-18.21793086792344</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7135699735497688</v>
+        <v>0.6977295913009645</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.055971657006462</v>
+        <v>-2.954514986504243</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.57977898431976</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.77625798756635</v>
+        <v>-17.73032087904481</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7424004470439663</v>
+        <v>0.729488579908444</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.12215414296389</v>
+        <v>-3.022535739043631</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.842439676924049</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.66595221463501</v>
+        <v>-17.62525612147481</v>
       </c>
       <c r="F62" t="n">
-        <v>0.626535873304949</v>
+        <v>0.6140200157256467</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.251272814319114</v>
+        <v>-3.146017385481302</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.100696257583082</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.10246972818873</v>
+        <v>-17.06820267905852</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5185279336010639</v>
+        <v>0.5056258444792754</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.238629842561271</v>
+        <v>-3.147640535761117</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.346998779758009</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.27855219950754</v>
+        <v>-17.24411892414386</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3881576764879099</v>
+        <v>0.377172078057952</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.376988736894964</v>
+        <v>-3.280821971822748</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.579470834818943</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.02687590401249</v>
+        <v>-17.00016725949853</v>
       </c>
       <c r="F65" t="n">
-        <v>0.349123845662461</v>
+        <v>0.3332199063243866</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.167118339118907</v>
+        <v>-3.072388942065563</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.794476541233866</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.90918284170525</v>
+        <v>-16.88885435115261</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3235298947141612</v>
+        <v>0.3143630068386957</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.246305583342328</v>
+        <v>-3.160606181972176</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.987471603959163</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.7002120211927</v>
+        <v>-16.67824082433278</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1223179280994096</v>
+        <v>0.1100807439115215</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.172158905198696</v>
+        <v>-3.091578294018204</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.156853960040781</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.66709388867622</v>
+        <v>-16.65466603322052</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.01429070177592788</v>
+        <v>-0.03549432455773802</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.949479309431321</v>
+        <v>-2.869773830480006</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.298647717645061</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.66194576444536</v>
+        <v>-16.65722298381192</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.02242600920247436</v>
+        <v>-0.02738346216552611</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.8263301154606</v>
+        <v>-2.754613273729825</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.410516414138629</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.71303099719775</v>
+        <v>-16.70797087509049</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2701030970803857</v>
+        <v>-0.2825700645910187</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.876716220231025</v>
+        <v>-2.808392349265889</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.492920501997235</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.43097930203856</v>
+        <v>-16.43013839285745</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3103054005470273</v>
+        <v>-0.3230852644971429</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.572194649511494</v>
+        <v>-2.502853865118039</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.545150815845533</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.52471623069792</v>
+        <v>-16.52706784300091</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4271086636044923</v>
+        <v>-0.4449584276755987</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.63158141592391</v>
+        <v>-2.565804717536436</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.570382016897755</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.33185957681873</v>
+        <v>-16.33049554390286</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5772305084599827</v>
+        <v>-0.5943078094461166</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.258652861122505</v>
+        <v>-2.202756845613066</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.574455337560579</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.52021345537349</v>
+        <v>-16.52074146811512</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6500375987220801</v>
+        <v>-0.666083319259295</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.991566415982941</v>
+        <v>-1.938471801408245</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.559047702387261</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.67121532146503</v>
+        <v>-16.67092198105301</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6003359549130227</v>
+        <v>-0.6199702064905531</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.866070498716101</v>
+        <v>-1.815356830485592</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.529348239502886</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.85997498758974</v>
+        <v>-16.86669737203176</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7010788304126722</v>
+        <v>-0.7231771414511277</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.59284834995856</v>
+        <v>-1.545415205335751</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.491663393335296</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.93190694562266</v>
+        <v>-16.94352322593846</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8782124382078677</v>
+        <v>-0.8983600355064241</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.305770755740181</v>
+        <v>-1.268809863826304</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.451577655294161</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.46481358312326</v>
+        <v>-17.47972994307422</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.077082570533367</v>
+        <v>-1.098095522047367</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.9849003460576856</v>
+        <v>-0.9407672810700444</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.417028236033842</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.7181765859874</v>
+        <v>-17.74275362350738</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.098481753589854</v>
+        <v>-1.125229510158745</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.9793757682980717</v>
+        <v>-0.9373254202357363</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.392756308515787</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.89611687991563</v>
+        <v>-17.92754830506303</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.170853722240796</v>
+        <v>-1.196310780996822</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5909735067628806</v>
+        <v>-0.5414869792559674</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.381976407936412</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.63476759339661</v>
+        <v>-18.66206780774146</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.376490240070105</v>
+        <v>-1.400353482587517</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2852247953197536</v>
+        <v>-0.2361636114102621</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.389164481836827</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.0626094733272</v>
+        <v>-19.09635339872265</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.405183821372029</v>
+        <v>-1.427893258268849</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.05803264621421592</v>
+        <v>-0.0160311882205496</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.413342749437023</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.66166437373716</v>
+        <v>-19.69810703092314</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.458346882042862</v>
+        <v>-1.486243555225479</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1401188021018469</v>
+        <v>0.1788250694672126</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.454735726206428</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.63645411889013</v>
+        <v>-20.67481815577481</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.643058450481776</v>
+        <v>-1.66794838444124</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5137269288577534</v>
+        <v>0.5545892482514285</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.514757660014425</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.13822756066221</v>
+        <v>-21.17289061934864</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.625472692781483</v>
+        <v>-1.653173805689423</v>
       </c>
       <c r="G85" t="n">
-        <v>0.550712265805965</v>
+        <v>0.5995925564613807</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.589267595656716</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.22842231290871</v>
+        <v>-22.26252802481231</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.840496103795269</v>
+        <v>-1.864090450935001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8102843073910804</v>
+        <v>0.8725409208343753</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.677711870018607</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.07057330176228</v>
+        <v>-23.10004423515604</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.892055570213754</v>
+        <v>-1.91166537675695</v>
       </c>
       <c r="G87" t="n">
-        <v>1.029155366809129</v>
+        <v>1.079194352092003</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.77858872183503</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.32135726256633</v>
+        <v>-24.34981617153864</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.846666030461316</v>
+        <v>-1.857485402657799</v>
       </c>
       <c r="G88" t="n">
-        <v>1.210894419072958</v>
+        <v>1.279853860930793</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.888989940020064</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.54836109396971</v>
+        <v>-25.57703511924416</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.101202394973509</v>
+        <v>-2.112319996588873</v>
       </c>
       <c r="G89" t="n">
-        <v>1.349336426523389</v>
+        <v>1.407994730912634</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.00751071548307</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.96523439605659</v>
+        <v>-26.99117057748558</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.328257651886773</v>
+        <v>-2.334329798415481</v>
       </c>
       <c r="G90" t="n">
-        <v>1.509886523026009</v>
+        <v>1.580591340335333</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.128955572400029</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.37475463181564</v>
+        <v>-28.39289529179533</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.678804333251442</v>
+        <v>-2.692850449980088</v>
       </c>
       <c r="G91" t="n">
-        <v>1.161094995126563</v>
+        <v>1.222246693017935</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.24858848679866</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.15038325779675</v>
+        <v>-30.16845302717687</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.798765894744934</v>
+        <v>-2.806343855388652</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9763100915846451</v>
+        <v>1.038219585540389</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.364101749697488</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.79206776264499</v>
+        <v>-31.81540299242077</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.991099424889368</v>
+        <v>-2.997675139125368</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7991813727963165</v>
+        <v>0.8580059034190372</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.468300146080876</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.76989593462796</v>
+        <v>-33.79203335772135</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.108484479763995</v>
+        <v>-3.117768703804267</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7422195537898905</v>
+        <v>0.7982866845396711</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.560386146943916</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.93246989809791</v>
+        <v>-35.96195549851228</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.36514267325643</v>
+        <v>-3.373356204792847</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3278371097639133</v>
+        <v>0.3786241130974258</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.640334842746952</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.97689367711857</v>
+        <v>-37.99683349162529</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.622226210346285</v>
+        <v>-3.63077708335652</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1642512094048101</v>
+        <v>-0.1167887307407998</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.706159835499525</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.07213623801738</v>
+        <v>-40.09266762235499</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.62600541265441</v>
+        <v>-3.638252374856032</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.6024724509138646</v>
+        <v>-0.5583247189056225</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.755213049900197</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.10247723275788</v>
+        <v>-42.12302817312296</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.011484048083187</v>
+        <v>-4.024860370871066</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.021812347902894</v>
+        <v>-0.9813509270723054</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.786105862947641</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.36761278228198</v>
+        <v>-44.38745970565822</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.981822443421613</v>
+        <v>-3.986095435423297</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.145738893965454</v>
+        <v>-1.101923614424162</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.791179053549826</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.91485013928565</v>
+        <v>-46.93456261497306</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.3451929897982</v>
+        <v>-4.348703296728645</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.55012331894859</v>
+        <v>-1.526646307973664</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.774299410580042</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.13369901629724</v>
+        <v>-49.14852248511772</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.484207011052059</v>
+        <v>-4.491628523476036</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.751804630222565</v>
+        <v>-1.721003886961001</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.722257106433583</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.45050036813918</v>
+        <v>-51.46021971379061</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.624897961661271</v>
+        <v>-4.620786306886195</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.027231721077086</v>
+        <v>-2.005881428089268</v>
       </c>
     </row>
   </sheetData>
